--- a/3/ИДЗ_3_Кравченко_ПИ-13-6.xlsx
+++ b/3/ИДЗ_3_Кравченко_ПИ-13-6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Макс" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>t (мс)</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>AVX+OMP</t>
+  </si>
+  <si>
+    <t>Stand + PPL</t>
+  </si>
+  <si>
+    <t>SSE + PPL</t>
+  </si>
+  <si>
+    <t>AVX + PPL</t>
+  </si>
+  <si>
+    <t>RELEASE X64</t>
   </si>
 </sst>
 </file>
@@ -147,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -163,9 +175,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -186,12 +195,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -200,6 +203,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -257,7 +270,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1020,11 +1032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297537600"/>
-        <c:axId val="297536512"/>
+        <c:axId val="636416608"/>
+        <c:axId val="636421504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297537600"/>
+        <c:axId val="636416608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1083,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1106,8 +1117,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1130,12 +1142,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297536512"/>
+        <c:crossAx val="636421504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297536512"/>
+        <c:axId val="636421504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1193,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1245,7 +1256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297537600"/>
+        <c:crossAx val="636416608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1259,7 +1270,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1367,7 +1377,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2010,11 +2019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297540864"/>
-        <c:axId val="297542496"/>
+        <c:axId val="636420416"/>
+        <c:axId val="636422592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297540864"/>
+        <c:axId val="636420416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2070,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2121,12 +2129,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297542496"/>
+        <c:crossAx val="636422592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297542496"/>
+        <c:axId val="636422592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2180,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2236,7 +2243,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297540864"/>
+        <c:crossAx val="636420416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2250,7 +2257,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2492,28 +2498,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4700000000000002</c:v>
+                  <c:v>3.19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.48</c:v>
+                  <c:v>12.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.37</c:v>
+                  <c:v>31.77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131.22999999999999</c:v>
+                  <c:v>132.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>499.76</c:v>
+                  <c:v>525.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,28 +2618,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.48</c:v>
+                  <c:v>1.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.59</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.64</c:v>
+                  <c:v>25.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.34</c:v>
+                  <c:v>74.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>264.18</c:v>
+                  <c:v>267.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,28 +2738,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.59</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.52</c:v>
+                  <c:v>6.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.9</c:v>
+                  <c:v>24.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.36</c:v>
+                  <c:v>96.11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.52</c:v>
+                  <c:v>378.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,28 +2858,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.39</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.79</c:v>
+                  <c:v>5.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.1</c:v>
+                  <c:v>13.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.04</c:v>
+                  <c:v>66.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>245.57</c:v>
+                  <c:v>217.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,28 +2978,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.89</c:v>
+                  <c:v>9.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.6</c:v>
+                  <c:v>34.909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>156.36000000000001</c:v>
+                  <c:v>140.08000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>591.76</c:v>
+                  <c:v>551.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3092,28 +3098,403 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>258.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>МатрВек!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stand + PPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВек!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВек!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.61</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.67</c:v>
+                  <c:v>5.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>19.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.33</c:v>
+                  <c:v>70.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>275.62</c:v>
+                  <c:v>274.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>МатрВек!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSE + PPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВек!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВек!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>561.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2525.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>МатрВек!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVX + PPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВек!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВек!$K$4:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>399.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1495.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3128,11 +3509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="778621376"/>
-        <c:axId val="778612128"/>
+        <c:axId val="636431840"/>
+        <c:axId val="636418240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="778621376"/>
+        <c:axId val="636431840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3239,12 +3620,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778612128"/>
+        <c:crossAx val="636418240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="778612128"/>
+        <c:axId val="636418240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3354,7 +3735,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778621376"/>
+        <c:crossAx val="636431840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3516,7 +3897,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>МатрВек!$L$3</c:f>
+              <c:f>МатрВек!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3598,33 +3979,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МатрВек!$L$4:$L$11</c:f>
+              <c:f>МатрВек!$M$4:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.10784313725490197</c:v>
+                  <c:v>7.9411764705882348E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.28571428571428575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9565217391304347</c:v>
+                  <c:v>1.357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6689189189189191</c:v>
+                  <c:v>1.8439306358381502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6296296296296298</c:v>
+                  <c:v>2.044776119402985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3935845213849287</c:v>
+                  <c:v>1.2309182487407981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6540206705318878</c:v>
+                  <c:v>1.7791997844537246</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.891740479975774</c:v>
+                  <c:v>1.9635153826025196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3636,7 +4017,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>МатрВек!$M$3</c:f>
+              <c:f>МатрВек!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3718,33 +4099,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МатрВек!$M$4:$M$11</c:f>
+              <c:f>МатрВек!$N$4:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.75</c:v>
+                  <c:v>1.0799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.25</c:v>
+                  <c:v>1.5555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>2.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5534591194968554</c:v>
+                  <c:v>1.8875739644970415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3550724637681162</c:v>
+                  <c:v>1.9759615384615383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2497716894977171</c:v>
+                  <c:v>1.3052588331963846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5021749084249083</c:v>
+                  <c:v>1.3741546145042138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4136682507354605</c:v>
+                  <c:v>1.3873745377707343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3756,7 +4137,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>МатрВек!$N$3</c:f>
+              <c:f>МатрВек!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3838,33 +4219,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МатрВек!$N$4:$N$11</c:f>
+              <c:f>МатрВек!$O$4:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.91666666666666674</c:v>
+                  <c:v>1.2272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45454545454545459</c:v>
+                  <c:v>1.5555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4193548387096775</c:v>
+                  <c:v>1.7674418604651163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7769784172661873</c:v>
+                  <c:v>2.7739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5615866388308979</c:v>
+                  <c:v>2.1555944055944058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0893129770992367</c:v>
+                  <c:v>2.3240673006583759</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2227303523035231</c:v>
+                  <c:v>1.9762082896902589</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0351020075742152</c:v>
+                  <c:v>2.4146554498230128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3876,7 +4257,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>МатрВек!$O$3</c:f>
+              <c:f>МатрВек!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3958,33 +4339,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МатрВек!$O$4:$O$11</c:f>
+              <c:f>МатрВек!$P$4:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.1999999999999997</c:v>
+                  <c:v>0.67499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.625</c:v>
+                  <c:v>1.0769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>1.2258064516129032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85172413793103463</c:v>
+                  <c:v>1.5263157894736843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6291000841042893</c:v>
+                  <c:v>1.2790456431535269</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52034220532319397</c:v>
+                  <c:v>0.91005442566599837</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8392811460731644</c:v>
+                  <c:v>0.94281838949171892</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84453156685142627</c:v>
+                  <c:v>0.95300820088540539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3996,7 +4377,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>МатрВек!$P$3</c:f>
+              <c:f>МатрВек!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4078,33 +4459,403 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МатрВек!$P$4:$P$11</c:f>
+              <c:f>МатрВек!$Q$4:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.18965517241379312</c:v>
+                  <c:v>0.67499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52631578947368418</c:v>
+                  <c:v>0.93333333333333346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44</c:v>
+                  <c:v>1.7272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94636015325670508</c:v>
+                  <c:v>2.1554054054054053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1214392803598201</c:v>
+                  <c:v>2.3133208255159476</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4108247422680413</c:v>
+                  <c:v>1.4763011152416357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8143232407023364</c:v>
+                  <c:v>1.6694476046011881</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8132211015165807</c:v>
+                  <c:v>2.0281091934051507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>МатрВек!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stand + PPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВек!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВек!$R$4:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.062573789846517E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73684210526315796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2258064516129032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2624113475177308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1861702127659575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6126903553299492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8840228245363766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9151201370911877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>МатрВек!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSE + PPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВек!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВек!$S$4:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4285714285714287E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26027397260273971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29292929292929293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29483500717360117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20322394933793897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23530564612396884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20797598967365913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>МатрВек!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVX + PPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>МатрВек!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>МатрВек!$T$4:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.9411764705882348E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19178082191780824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38578680203045684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28868778280542984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51784964300713987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33246128087065718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33068756572687663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35122936295127349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4119,11 +4870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="778633888"/>
-        <c:axId val="778617568"/>
+        <c:axId val="636417152"/>
+        <c:axId val="636426944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="778633888"/>
+        <c:axId val="636417152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4230,12 +4981,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778617568"/>
+        <c:crossAx val="636426944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="778617568"/>
+        <c:axId val="636426944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4345,7 +5096,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778633888"/>
+        <c:crossAx val="636417152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5165,11 +5916,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="778627360"/>
-        <c:axId val="778618112"/>
+        <c:axId val="636429120"/>
+        <c:axId val="636427488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="778627360"/>
+        <c:axId val="636429120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5276,12 +6027,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778618112"/>
+        <c:crossAx val="636427488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="778618112"/>
+        <c:axId val="636427488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5391,7 +6142,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778627360"/>
+        <c:crossAx val="636429120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6096,11 +6847,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="778625728"/>
-        <c:axId val="778615392"/>
+        <c:axId val="636426400"/>
+        <c:axId val="636419872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="778625728"/>
+        <c:axId val="636426400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6207,12 +6958,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778615392"/>
+        <c:crossAx val="636419872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="778615392"/>
+        <c:axId val="636419872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6322,7 +7073,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778625728"/>
+        <c:crossAx val="636426400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9944,16 +10695,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9976,16 +10727,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>628650</xdr:rowOff>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10387,18 +11138,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="L2" s="12" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="5"/>
@@ -10431,13 +11182,13 @@
       <c r="M3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10445,34 +11196,34 @@
       <c r="B4" s="6">
         <v>64</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>0.05</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.79</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>2.3E-2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="L4" s="7">
-        <f>C4/D4</f>
+        <f t="shared" ref="L4:L11" si="0">C4/D4</f>
         <v>6.3291139240506333E-2</v>
       </c>
       <c r="M4" s="7">
-        <f>C4/E4</f>
+        <f t="shared" ref="M4:M11" si="1">C4/E4</f>
         <v>2.1739130434782612</v>
       </c>
       <c r="N4" s="1">
-        <f>C4/F4</f>
+        <f t="shared" ref="N4:N11" si="2">C4/F4</f>
         <v>1.3513513513513515</v>
       </c>
       <c r="O4">
@@ -10488,42 +11239,42 @@
       <c r="B5" s="6">
         <v>128</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>0.08</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0.08</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>0.12</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>0.11</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>0.14000000000000001</v>
       </c>
       <c r="L5" s="7">
-        <f>C5/D5</f>
+        <f t="shared" si="0"/>
         <v>7.2072072072072071E-2</v>
       </c>
       <c r="M5" s="7">
-        <f>C5/E5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <f>C5/F5</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O11" si="0">C5/G5</f>
+        <f t="shared" ref="O5:O11" si="3">C5/G5</f>
         <v>0.72727272727272729</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P11" si="1">C5/H5</f>
+        <f t="shared" ref="P5:P11" si="4">C5/H5</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -10531,42 +11282,42 @@
       <c r="B6" s="6">
         <v>256</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>0.33</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>0.33</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>0.61</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>0.37</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>0.28999999999999998</v>
       </c>
       <c r="L6" s="7">
-        <f>C6/D6</f>
+        <f t="shared" si="0"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="M6" s="7">
-        <f>C6/E6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <f>C6/F6</f>
+        <f t="shared" si="2"/>
         <v>0.54098360655737709</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.891891891891892</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1379310344827587</v>
       </c>
     </row>
@@ -10574,42 +11325,42 @@
       <c r="B7" s="6">
         <v>512</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>1.28</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>0.8</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>1.31</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>1.95</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>1.4</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>0.87</v>
       </c>
       <c r="L7" s="7">
-        <f>C7/D7</f>
+        <f t="shared" si="0"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="M7" s="7">
-        <f>C7/E7</f>
+        <f t="shared" si="1"/>
         <v>0.97709923664122134</v>
       </c>
       <c r="N7" s="1">
-        <f>C7/F7</f>
+        <f t="shared" si="2"/>
         <v>0.65641025641025641</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.91428571428571437</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4712643678160919</v>
       </c>
     </row>
@@ -10617,42 +11368,42 @@
       <c r="B8" s="6">
         <v>1024</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>5.43</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>3.15</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>5.32</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>3.0790000000000002</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>5.98</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>2.87</v>
       </c>
       <c r="L8" s="7">
-        <f>C8/D8</f>
+        <f t="shared" si="0"/>
         <v>1.7238095238095237</v>
       </c>
       <c r="M8" s="7">
-        <f>C8/E8</f>
+        <f t="shared" si="1"/>
         <v>1.0206766917293233</v>
       </c>
       <c r="N8" s="1">
-        <f>C8/F8</f>
+        <f t="shared" si="2"/>
         <v>1.7635595972718414</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.90802675585284265</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8919860627177698</v>
       </c>
     </row>
@@ -10660,128 +11411,128 @@
       <c r="B9" s="6">
         <v>2048</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>21.55</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>8.58</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>21.72</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>12.83</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>24.47</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>15.7</v>
       </c>
       <c r="L9" s="7">
-        <f>C9/D9</f>
+        <f t="shared" si="0"/>
         <v>2.5116550116550118</v>
       </c>
       <c r="M9" s="7">
-        <f>C9/E9</f>
+        <f t="shared" si="1"/>
         <v>0.9921731123388583</v>
       </c>
       <c r="N9" s="1">
-        <f>C9/F9</f>
+        <f t="shared" si="2"/>
         <v>1.6796570537802027</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.88067020841847166</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3726114649681529</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>4096</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>85.373999999999995</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>34.369999999999997</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>91.59</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>33.247999999999998</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>102.35</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>35.61</v>
       </c>
       <c r="L10" s="7">
-        <f>C10/D10</f>
+        <f t="shared" si="0"/>
         <v>2.4839685772475999</v>
       </c>
       <c r="M10" s="7">
-        <f>C10/E10</f>
+        <f t="shared" si="1"/>
         <v>0.93213232885686204</v>
       </c>
       <c r="N10" s="1">
-        <f>C10/F10</f>
+        <f t="shared" si="2"/>
         <v>2.5677935514918193</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.83413776257938443</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.3974726200505474</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>8192</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>377.16</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>144.24</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>368</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>123.28</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>409.24</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>158.11000000000001</v>
       </c>
       <c r="L11" s="7">
-        <f>C11/D11</f>
+        <f t="shared" si="0"/>
         <v>2.6148086522462561</v>
       </c>
       <c r="M11" s="7">
-        <f>C11/E11</f>
+        <f t="shared" si="1"/>
         <v>1.024891304347826</v>
       </c>
       <c r="N11" s="1">
-        <f>C11/F11</f>
+        <f t="shared" si="2"/>
         <v>3.0593770279039587</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.92161079073404362</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.3854278666750997</v>
       </c>
     </row>
@@ -10797,35 +11548,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P11"/>
+  <dimension ref="B2:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:P11"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="L2" s="18" t="s">
+      <c r="C2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="M2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="4"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
     </row>
-    <row r="3" spans="2:16" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -10847,364 +11606,559 @@
       <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="R3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>64</v>
       </c>
-      <c r="C4" s="13">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.51</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.06</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="C4" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="E4" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H4" s="13">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L4" s="3">
-        <f>C4/D4</f>
-        <v>0.10784313725490197</v>
-      </c>
+      <c r="F4" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="I4" s="14">
+        <v>25.41</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1.89</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.34</v>
+      </c>
+      <c r="L4" s="14"/>
       <c r="M4" s="3">
-        <f>C4/E4</f>
-        <v>2.75</v>
-      </c>
-      <c r="N4" s="4">
-        <f>C4/F4</f>
-        <v>0.91666666666666674</v>
+        <f t="shared" ref="M4:M11" si="0">C4/D4</f>
+        <v>7.9411764705882348E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N11" si="1">C4/E4</f>
+        <v>1.0799999999999998</v>
       </c>
       <c r="O4" s="4">
+        <f t="shared" ref="O4:O11" si="2">C4/F4</f>
+        <v>1.2272727272727273</v>
+      </c>
+      <c r="P4" s="4">
         <f>C4/G4</f>
-        <v>2.1999999999999997</v>
-      </c>
-      <c r="P4" s="4">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="Q4" s="4">
         <f>C4/H4</f>
-        <v>0.18965517241379312</v>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="R4" s="4">
+        <f>C4/I4</f>
+        <v>1.062573789846517E-3</v>
+      </c>
+      <c r="S4" s="4">
+        <f>C4/J4</f>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="T4" s="4">
+        <f>C4/K4</f>
+        <v>7.9411764705882348E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>128</v>
       </c>
-      <c r="C5" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="C5" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="I5" s="14">
         <v>0.19</v>
       </c>
-      <c r="L5" s="3">
-        <f>C5/D5</f>
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="J5" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="L5" s="14"/>
       <c r="M5" s="3">
-        <f>C5/E5</f>
-        <v>1.25</v>
-      </c>
-      <c r="N5" s="4">
-        <f>C5/F5</f>
-        <v>0.45454545454545459</v>
+        <f t="shared" si="0"/>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5555555555555558</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" ref="O5:O11" si="0">C5/G5</f>
-        <v>0.625</v>
+        <f t="shared" si="2"/>
+        <v>1.5555555555555558</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P11" si="1">C5/H5</f>
-        <v>0.52631578947368418</v>
+        <f t="shared" ref="P5:P11" si="3">C5/G5</f>
+        <v>1.0769230769230771</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" ref="Q5:Q11" si="4">C5/H5</f>
+        <v>0.93333333333333346</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" ref="R5:R11" si="5">C5/I5</f>
+        <v>0.73684210526315796</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" ref="S5:S11" si="6">C5/J5</f>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" ref="T5:T11" si="7">C5/K5</f>
+        <v>0.19178082191780824</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>256</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="12">
         <v>0.44</v>
       </c>
-      <c r="D6" s="14">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.33</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.31</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.66</v>
-      </c>
-      <c r="H6" s="13">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <f>C6/D6</f>
-        <v>0.9565217391304347</v>
-      </c>
+      <c r="I6" s="14">
+        <v>0.62</v>
+      </c>
+      <c r="J6" s="14">
+        <v>2.92</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1.97</v>
+      </c>
+      <c r="L6" s="14"/>
       <c r="M6" s="3">
-        <f>C6/E6</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="N6" s="4">
-        <f>C6/F6</f>
-        <v>1.4193548387096775</v>
+        <f t="shared" si="0"/>
+        <v>1.357142857142857</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1111111111111112</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="2"/>
+        <v>1.7674418604651163</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.44</v>
+        <f t="shared" si="3"/>
+        <v>1.2258064516129032</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7272727272727273</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2258064516129032</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="6"/>
+        <v>0.26027397260273971</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="7"/>
+        <v>0.38578680203045684</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>512</v>
       </c>
-      <c r="C7" s="13">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="C7" s="12">
+        <v>3.19</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1.73</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1.69</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2.09</v>
+      </c>
+      <c r="H7" s="12">
         <v>1.48</v>
       </c>
-      <c r="E7" s="13">
-        <v>1.59</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1.39</v>
-      </c>
-      <c r="G7" s="13">
-        <v>2.9</v>
-      </c>
-      <c r="H7" s="13">
-        <v>2.61</v>
-      </c>
-      <c r="L7" s="3">
-        <f>C7/D7</f>
-        <v>1.6689189189189191</v>
-      </c>
+      <c r="I7" s="14">
+        <v>1.41</v>
+      </c>
+      <c r="J7" s="14">
+        <v>10.89</v>
+      </c>
+      <c r="K7" s="14">
+        <v>11.05</v>
+      </c>
+      <c r="L7" s="14"/>
       <c r="M7" s="3">
-        <f>C7/E7</f>
-        <v>1.5534591194968554</v>
-      </c>
-      <c r="N7" s="4">
-        <f>C7/F7</f>
-        <v>1.7769784172661873</v>
+        <f t="shared" si="0"/>
+        <v>1.8439306358381502</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8875739644970415</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.85172413793103463</v>
+        <f t="shared" si="2"/>
+        <v>2.7739130434782608</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.94636015325670508</v>
+        <f t="shared" si="3"/>
+        <v>1.5263157894736843</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1554054054054053</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="5"/>
+        <v>2.2624113475177308</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="6"/>
+        <v>0.29292929292929293</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="7"/>
+        <v>0.28868778280542984</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>1024</v>
       </c>
-      <c r="C8" s="13">
-        <v>7.48</v>
-      </c>
-      <c r="D8" s="14">
-        <v>4.59</v>
-      </c>
-      <c r="E8" s="13">
-        <v>5.52</v>
-      </c>
-      <c r="F8" s="13">
-        <v>4.79</v>
-      </c>
-      <c r="G8" s="13">
-        <v>11.89</v>
-      </c>
-      <c r="H8" s="13">
-        <v>6.67</v>
-      </c>
-      <c r="L8" s="3">
-        <f>C8/D8</f>
-        <v>1.6296296296296298</v>
-      </c>
+      <c r="C8" s="12">
+        <v>12.33</v>
+      </c>
+      <c r="D8" s="13">
+        <v>6.03</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6.24</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5.72</v>
+      </c>
+      <c r="G8" s="12">
+        <v>9.64</v>
+      </c>
+      <c r="H8" s="12">
+        <v>5.33</v>
+      </c>
+      <c r="I8" s="14">
+        <v>5.64</v>
+      </c>
+      <c r="J8" s="14">
+        <v>41.82</v>
+      </c>
+      <c r="K8" s="14">
+        <v>23.81</v>
+      </c>
+      <c r="L8" s="14"/>
       <c r="M8" s="3">
-        <f>C8/E8</f>
-        <v>1.3550724637681162</v>
-      </c>
-      <c r="N8" s="4">
-        <f>C8/F8</f>
-        <v>1.5615866388308979</v>
+        <f t="shared" si="0"/>
+        <v>2.044776119402985</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9759615384615383</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.6291000841042893</v>
+        <f t="shared" si="2"/>
+        <v>2.1555944055944058</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1214392803598201</v>
+        <f t="shared" si="3"/>
+        <v>1.2790456431535269</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3133208255159476</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="5"/>
+        <v>2.1861702127659575</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="6"/>
+        <v>0.29483500717360117</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="7"/>
+        <v>0.51784964300713987</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>2048</v>
       </c>
-      <c r="C9" s="13">
-        <v>27.37</v>
-      </c>
-      <c r="D9" s="14">
-        <v>19.64</v>
-      </c>
-      <c r="E9" s="13">
-        <v>21.9</v>
-      </c>
-      <c r="F9" s="13">
-        <v>13.1</v>
-      </c>
-      <c r="G9" s="13">
-        <v>52.6</v>
-      </c>
-      <c r="H9" s="13">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="L9" s="3">
-        <f>C9/D9</f>
-        <v>1.3935845213849287</v>
-      </c>
+      <c r="C9" s="12">
+        <v>31.77</v>
+      </c>
+      <c r="D9" s="13">
+        <v>25.81</v>
+      </c>
+      <c r="E9" s="12">
+        <v>24.34</v>
+      </c>
+      <c r="F9" s="12">
+        <v>13.67</v>
+      </c>
+      <c r="G9" s="12">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="H9" s="12">
+        <v>21.52</v>
+      </c>
+      <c r="I9" s="14">
+        <v>19.7</v>
+      </c>
+      <c r="J9" s="14">
+        <v>156.33000000000001</v>
+      </c>
+      <c r="K9" s="14">
+        <v>95.56</v>
+      </c>
+      <c r="L9" s="14"/>
       <c r="M9" s="3">
-        <f>C9/E9</f>
-        <v>1.2497716894977171</v>
-      </c>
-      <c r="N9" s="4">
-        <f>C9/F9</f>
-        <v>2.0893129770992367</v>
+        <f t="shared" si="0"/>
+        <v>1.2309182487407981</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3052588331963846</v>
       </c>
       <c r="O9" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3240673006583759</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91005442566599837</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="4"/>
+        <v>1.4763011152416357</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="5"/>
+        <v>1.6126903553299492</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="6"/>
+        <v>0.20322394933793897</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="7"/>
+        <v>0.33246128087065718</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>4096</v>
+      </c>
+      <c r="C10" s="14">
+        <v>132.07</v>
+      </c>
+      <c r="D10" s="13">
+        <v>74.23</v>
+      </c>
+      <c r="E10" s="14">
+        <v>96.11</v>
+      </c>
+      <c r="F10" s="14">
+        <v>66.83</v>
+      </c>
+      <c r="G10" s="14">
+        <v>140.08000000000001</v>
+      </c>
+      <c r="H10" s="14">
+        <v>79.11</v>
+      </c>
+      <c r="I10" s="14">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="J10" s="14">
+        <v>561.27</v>
+      </c>
+      <c r="K10" s="14">
+        <v>399.38</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="3">
         <f t="shared" si="0"/>
-        <v>0.52034220532319397</v>
-      </c>
-      <c r="P9" s="4">
+        <v>1.7791997844537246</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="1"/>
-        <v>1.4108247422680413</v>
+        <v>1.3741546145042138</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9762082896902589</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.94281838949171892</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="4"/>
+        <v>1.6694476046011881</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8840228245363766</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="6"/>
+        <v>0.23530564612396884</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="7"/>
+        <v>0.33068756572687663</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
-        <v>4096</v>
-      </c>
-      <c r="C10" s="15">
-        <v>131.22999999999999</v>
-      </c>
-      <c r="D10" s="14">
-        <v>79.34</v>
-      </c>
-      <c r="E10" s="15">
-        <v>87.36</v>
-      </c>
-      <c r="F10" s="15">
-        <v>59.04</v>
-      </c>
-      <c r="G10" s="15">
-        <v>156.36000000000001</v>
-      </c>
-      <c r="H10" s="15">
-        <v>72.33</v>
-      </c>
-      <c r="L10" s="3">
-        <f>C10/D10</f>
-        <v>1.6540206705318878</v>
-      </c>
-      <c r="M10" s="3">
-        <f>C10/E10</f>
-        <v>1.5021749084249083</v>
-      </c>
-      <c r="N10" s="4">
-        <f>C10/F10</f>
-        <v>2.2227303523035231</v>
-      </c>
-      <c r="O10" s="4">
+    <row r="11" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>8192</v>
+      </c>
+      <c r="C11" s="14">
+        <v>525.26</v>
+      </c>
+      <c r="D11" s="13">
+        <v>267.51</v>
+      </c>
+      <c r="E11" s="14">
+        <v>378.6</v>
+      </c>
+      <c r="F11" s="14">
+        <v>217.53</v>
+      </c>
+      <c r="G11" s="14">
+        <v>551.16</v>
+      </c>
+      <c r="H11" s="14">
+        <v>258.99</v>
+      </c>
+      <c r="I11" s="14">
+        <v>274.27</v>
+      </c>
+      <c r="J11" s="14">
+        <v>2525.58</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1495.49</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="3">
         <f t="shared" si="0"/>
-        <v>0.8392811460731644</v>
-      </c>
-      <c r="P10" s="4">
+        <v>1.9635153826025196</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="1"/>
-        <v>1.8143232407023364</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
-        <v>8192</v>
-      </c>
-      <c r="C11" s="15">
-        <v>499.76</v>
-      </c>
-      <c r="D11" s="14">
-        <v>264.18</v>
-      </c>
-      <c r="E11" s="15">
-        <v>353.52</v>
-      </c>
-      <c r="F11" s="15">
-        <v>245.57</v>
-      </c>
-      <c r="G11" s="15">
-        <v>591.76</v>
-      </c>
-      <c r="H11" s="15">
-        <v>275.62</v>
-      </c>
-      <c r="L11" s="3">
-        <f>C11/D11</f>
-        <v>1.891740479975774</v>
-      </c>
-      <c r="M11" s="3">
-        <f>C11/E11</f>
-        <v>1.4136682507354605</v>
-      </c>
-      <c r="N11" s="4">
-        <f>C11/F11</f>
-        <v>2.0351020075742152</v>
+        <v>1.3873745377707343</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.84453156685142627</v>
+        <f t="shared" si="2"/>
+        <v>2.4146554498230128</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="1"/>
-        <v>1.8132211015165807</v>
+        <f t="shared" si="3"/>
+        <v>0.95300820088540539</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0281091934051507</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9151201370911877</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="6"/>
+        <v>0.20797598967365913</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="7"/>
+        <v>0.35122936295127349</v>
       </c>
     </row>
   </sheetData>
@@ -11212,7 +12166,8 @@
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11220,7 +12175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -11234,18 +12189,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="L2" s="18" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="L2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="6"/>
@@ -11281,13 +12236,13 @@
       <c r="M3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11295,34 +12250,34 @@
       <c r="B4" s="6">
         <v>64</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>2.61</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>1.9</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>2.61</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>3.35</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>1.83</v>
       </c>
       <c r="L4" s="3">
-        <f>C4/D4</f>
+        <f t="shared" ref="L4:L9" si="0">C4/D4</f>
         <v>1.1548672566371683</v>
       </c>
       <c r="M4" s="3">
-        <f>C4/E4</f>
+        <f t="shared" ref="M4:M9" si="1">C4/E4</f>
         <v>1.3736842105263158</v>
       </c>
       <c r="N4" s="4">
-        <f>C4/F4</f>
+        <f t="shared" ref="N4:N9" si="2">C4/F4</f>
         <v>1</v>
       </c>
       <c r="O4" s="4">
@@ -11338,42 +12293,42 @@
       <c r="B5" s="6">
         <v>128</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>19.899999999999999</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>14.78</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>14.53</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>8.98</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>29.14</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>15.58</v>
       </c>
       <c r="L5" s="3">
-        <f>C5/D5</f>
+        <f t="shared" si="0"/>
         <v>1.3464140730717185</v>
       </c>
       <c r="M5" s="3">
-        <f>C5/E5</f>
+        <f t="shared" si="1"/>
         <v>1.3695801789401238</v>
       </c>
       <c r="N5" s="4">
-        <f>C5/F5</f>
+        <f t="shared" si="2"/>
         <v>2.216035634743875</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" ref="O5:O11" si="0">C5/G5</f>
+        <f t="shared" ref="O5:O9" si="3">C5/G5</f>
         <v>0.68291008922443375</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P11" si="1">C5/H5</f>
+        <f t="shared" ref="P5:P9" si="4">C5/H5</f>
         <v>1.2772785622593068</v>
       </c>
     </row>
@@ -11381,42 +12336,42 @@
       <c r="B6" s="6">
         <v>256</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>143.47</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>84.54</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>112.9</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>63.5</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>212.64</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>99.24</v>
       </c>
       <c r="L6" s="3">
-        <f>C6/D6</f>
+        <f t="shared" si="0"/>
         <v>1.6970664774071444</v>
       </c>
       <c r="M6" s="3">
-        <f>C6/E6</f>
+        <f t="shared" si="1"/>
         <v>1.2707705934455269</v>
       </c>
       <c r="N6" s="4">
-        <f>C6/F6</f>
+        <f t="shared" si="2"/>
         <v>2.2593700787401576</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.67470842738901438</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4456872228939943</v>
       </c>
     </row>
@@ -11424,42 +12379,42 @@
       <c r="B7" s="6">
         <v>512</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>1233.19</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>605.48</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>920.52</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>396.27</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>1715.77</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>659.79</v>
       </c>
       <c r="L7" s="3">
-        <f>C7/D7</f>
+        <f t="shared" si="0"/>
         <v>2.0367146726564047</v>
       </c>
       <c r="M7" s="3">
-        <f>C7/E7</f>
+        <f t="shared" si="1"/>
         <v>1.3396667101203668</v>
       </c>
       <c r="N7" s="4">
-        <f>C7/F7</f>
+        <f t="shared" si="2"/>
         <v>3.1119943472884652</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.71873852555995277</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8690643992785585</v>
       </c>
     </row>
@@ -11467,42 +12422,42 @@
       <c r="B8" s="6">
         <v>1024</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>8485.81</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>4230.51</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>7397.34</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>2661.48</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>13521.56</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>3787.82</v>
       </c>
       <c r="L8" s="3">
-        <f>C8/D8</f>
+        <f t="shared" si="0"/>
         <v>2.0058598135922145</v>
       </c>
       <c r="M8" s="3">
-        <f>C8/E8</f>
+        <f t="shared" si="1"/>
         <v>1.1471434326393</v>
       </c>
       <c r="N8" s="4">
-        <f>C8/F8</f>
+        <f t="shared" si="2"/>
         <v>3.1883801493905644</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.6275762559941308</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.2402886092792156</v>
       </c>
     </row>
@@ -11510,53 +12465,53 @@
       <c r="B9" s="6">
         <v>2048</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>59701.686891999998</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>26608</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>59903</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>27157</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>120127</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>31442</v>
       </c>
       <c r="L9" s="3">
-        <f>C9/D9</f>
+        <f t="shared" si="0"/>
         <v>2.2437495073662057</v>
       </c>
       <c r="M9" s="3">
-        <f>C9/E9</f>
+        <f t="shared" si="1"/>
         <v>0.99663934848004265</v>
       </c>
       <c r="N9" s="4">
-        <f>C9/F9</f>
+        <f t="shared" si="2"/>
         <v>2.1983903557830393</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.49698807838371056</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8987878281279815</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="2"/>
@@ -11564,13 +12519,13 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="2"/>
@@ -11578,13 +12533,13 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
